--- a/PostgreSQL.xlsx
+++ b/PostgreSQL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
   <si>
     <t> Основные действия PostgreSQL</t>
   </si>
@@ -175,6 +175,243 @@
   </si>
   <si>
     <t>Создание нового типа данных SQL в базе данных</t>
+  </si>
+  <si>
+    <t>Тип данных</t>
+  </si>
+  <si>
+    <t>Стандарт</t>
+  </si>
+  <si>
+    <t>Логические и двоичные типы данных</t>
+  </si>
+  <si>
+    <t>boolean, bool</t>
+  </si>
+  <si>
+    <t>Отдельная логическая величина (true или false)</t>
+  </si>
+  <si>
+    <t>SQL99</t>
+  </si>
+  <si>
+    <t>bit(n)</t>
+  </si>
+  <si>
+    <t>Битовая последовательность фиксированной длины (ровно nбит)</t>
+  </si>
+  <si>
+    <t>SQL92</t>
+  </si>
+  <si>
+    <t>Битовая последовательность переменной длины (до n бит)</t>
+  </si>
+  <si>
+    <t>Символьные типы</t>
+  </si>
+  <si>
+    <t>character(n), char(n)</t>
+  </si>
+  <si>
+    <t>Символьная строка фиксированной длины (ровно n символов)</t>
+  </si>
+  <si>
+    <t>SQL89</t>
+  </si>
+  <si>
+    <t>character varying(n), varchar(n)</t>
+  </si>
+  <si>
+    <t>Символьная строка переменной длины (до n символов)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Символьная строка переменной или неограниченной длины</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>Числовые типы</t>
+  </si>
+  <si>
+    <t>small int, int2</t>
+  </si>
+  <si>
+    <t>2-байтовое целое со знаком</t>
+  </si>
+  <si>
+    <t>integer, int, int4</t>
+  </si>
+  <si>
+    <t>4-байтовое целое со знаком</t>
+  </si>
+  <si>
+    <t>bigint, int8</t>
+  </si>
+  <si>
+    <t>8-байтовое целое со знаком, до 18 цифр</t>
+  </si>
+  <si>
+    <t>real, float4</t>
+  </si>
+  <si>
+    <t>4-байтовое вещественное число</t>
+  </si>
+  <si>
+    <t>double precision, floats, float</t>
+  </si>
+  <si>
+    <t>8-байтовое вещественное число</t>
+  </si>
+  <si>
+    <t>numeric(p.s),</t>
+  </si>
+  <si>
+    <t>decimal (p.s)</t>
+  </si>
+  <si>
+    <t>Число из р цифр, содержащее 5 цифр в дробной части</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>Фиксированная точность, представление денежных величин</t>
+  </si>
+  <si>
+    <t>PostgreSQL,</t>
+  </si>
+  <si>
+    <t>считается устаревшим</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>4-байтовое целое с автоматическим приращением</t>
+  </si>
+  <si>
+    <t>Время и дата</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Календарная дата (день, месяц и год)</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Время суток</t>
+  </si>
+  <si>
+    <t>time with time zone</t>
+  </si>
+  <si>
+    <t>Время суток с информацией о часовом поясе</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>Дата и время</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>Произвольный интервал времени</t>
+  </si>
+  <si>
+    <t>Геометрические типы</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>Прямоугольник на плоскости</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>Бесконечная линия на плоскости</t>
+  </si>
+  <si>
+    <t>Iseg</t>
+  </si>
+  <si>
+    <t>Отрезок на плоскости</t>
+  </si>
+  <si>
+    <t>circle</t>
+  </si>
+  <si>
+    <t>Круг с заданным центром и радиусом</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>Замкнутая или разомкнутая геометрическая фигура на плоскости</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>Точка на плоскости</t>
+  </si>
+  <si>
+    <t>polygon</t>
+  </si>
+  <si>
+    <t>Замкнутый многоугольник на плоскости</t>
+  </si>
+  <si>
+    <t>Сетевые типы</t>
+  </si>
+  <si>
+    <t>cidr</t>
+  </si>
+  <si>
+    <t>Спецификация сети IP</t>
+  </si>
+  <si>
+    <t>inet</t>
+  </si>
+  <si>
+    <t>Сетевой IP-адрес с необязательными битами подсети</t>
+  </si>
+  <si>
+    <t>macaddr</t>
+  </si>
+  <si>
+    <t>МАС-адрес (например, аппаратный адрес адаптера Ethernet)</t>
+  </si>
+  <si>
+    <t>Системные типы</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>Идентификатор объекта (записи)</t>
+  </si>
+  <si>
+    <t>xid</t>
+  </si>
+  <si>
+    <t>Идентификатор транзакции</t>
+  </si>
+  <si>
+    <t>Типы данных PostgreSQL</t>
+  </si>
+  <si>
+    <t>bit varying(/7), varbit(rt)</t>
   </si>
 </sst>
 </file>
@@ -227,7 +464,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -321,49 +558,344 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -667,239 +1199,675 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A46" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="21"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A50" s="35"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="40"/>
+      <c r="C58" s="41"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A63" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="40"/>
+      <c r="C70" s="41"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="13">
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A66:C66"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
